--- a/test.xlsx
+++ b/test.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\yoga-suit\kw-rank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\indexed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,36 +24,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>sports bra</t>
+  </si>
+  <si>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>high waist legging set</t>
+  </si>
+  <si>
+    <t>yoga bra legging set</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>sport bra outfit</t>
+  </si>
+  <si>
+    <t>bra legging workout set</t>
+  </si>
+  <si>
+    <t>leggings sets</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>yoga legging sport bra set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>nylon leggings for women</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>green sport bra</t>
+  </si>
+  <si>
+    <t>yoga legging green</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>yoga bra set</t>
+  </si>
+  <si>
+    <t>legging bra</t>
+  </si>
+  <si>
+    <t>sport bra legging</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>legging bra set</t>
+  </si>
+  <si>
+    <t>workout legging sport bra set</t>
+  </si>
+  <si>
+    <t>seamless bra set</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>yoga outfit set</t>
   </si>
 </sst>
 </file>
@@ -378,62 +453,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\indexed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\kw-rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>yoga outfit seamless 2</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,6 +636,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\kw-rank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD488279-4997-458B-B2D6-67879F7620CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,128 +25,323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>sports bra</t>
-  </si>
-  <si>
-    <t>jeggings set for women</t>
-  </si>
-  <si>
-    <t>green muscle leggings</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>high waist legging set</t>
-  </si>
-  <si>
-    <t>yoga bra legging set</t>
-  </si>
-  <si>
-    <t>exercise outfit for women</t>
-  </si>
-  <si>
-    <t>sport bra outfit</t>
-  </si>
-  <si>
-    <t>bra legging workout set</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>yoga pants enhance butt</t>
-  </si>
-  <si>
-    <t>butt lifting jeggings for women</t>
-  </si>
-  <si>
-    <t>green jeggings women</t>
-  </si>
-  <si>
-    <t>denim outfits for women sexy</t>
-  </si>
-  <si>
-    <t>yoga legging sport bra set</t>
-  </si>
-  <si>
-    <t>high waist jeggings for women</t>
-  </si>
-  <si>
-    <t>green workout leggings for women</t>
-  </si>
-  <si>
-    <t>nylon leggings for women</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>green sport bra</t>
-  </si>
-  <si>
-    <t>yoga legging green</t>
-  </si>
-  <si>
-    <t>fashionable workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>yoga work out set</t>
-  </si>
-  <si>
-    <t>yoga bra set</t>
-  </si>
-  <si>
-    <t>legging bra</t>
-  </si>
-  <si>
-    <t>sport bra legging</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>legging bra set</t>
-  </si>
-  <si>
-    <t>workout legging sport bra set</t>
-  </si>
-  <si>
-    <t>seamless bra set</t>
-  </si>
-  <si>
-    <t>legging sport bra set</t>
-  </si>
-  <si>
-    <t>yoga jeggings</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>long sleeve crop shirt</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black 2 piece set</t>
+  </si>
+  <si>
+    <t>jogger outfit</t>
+  </si>
+  <si>
+    <t>fashion legging</t>
+  </si>
+  <si>
+    <t>track outfit</t>
+  </si>
+  <si>
+    <t>fashion crop top</t>
+  </si>
+  <si>
+    <t>top legging</t>
+  </si>
+  <si>
+    <t>track shirt</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirt</t>
+  </si>
+  <si>
+    <t>long sleeve activewear</t>
+  </si>
+  <si>
+    <t>long sleeve athletic crop top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece</t>
+  </si>
+  <si>
+    <t>long sleeve legging set</t>
+  </si>
+  <si>
+    <t>work out long sleeve</t>
+  </si>
+  <si>
+    <t>two piece crop top</t>
+  </si>
+  <si>
+    <t>two piece suit</t>
+  </si>
+  <si>
+    <t>two piece jogger</t>
+  </si>
+  <si>
+    <t>two piece sweatsuit</t>
+  </si>
+  <si>
+    <t>2 piece outfit set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless long sleeve top</t>
+  </si>
+  <si>
+    <t>crop top fitness</t>
+  </si>
+  <si>
+    <t>2 piece legging set</t>
+  </si>
+  <si>
+    <t>2 piece crop top</t>
+  </si>
+  <si>
+    <t>2 piece suit</t>
+  </si>
+  <si>
+    <t>yoga sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt set</t>
+  </si>
+  <si>
+    <t>green long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve top</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>high waist set</t>
+  </si>
+  <si>
+    <t>pink apparel</t>
+  </si>
+  <si>
+    <t>size workout</t>
+  </si>
+  <si>
+    <t>piece set</t>
+  </si>
+  <si>
+    <t>2 piece track suit</t>
+  </si>
+  <si>
+    <t>pant set</t>
+  </si>
+  <si>
+    <t>track suit</t>
+  </si>
+  <si>
+    <t>fitness top</t>
+  </si>
+  <si>
+    <t>gym long sleeve</t>
+  </si>
+  <si>
+    <t>two outfit</t>
+  </si>
+  <si>
+    <t>top track</t>
+  </si>
+  <si>
+    <t>green pant</t>
+  </si>
+  <si>
+    <t>work out shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve</t>
+  </si>
+  <si>
+    <t>blue outfit</t>
+  </si>
+  <si>
+    <t>work apparel</t>
+  </si>
+  <si>
+    <t>pant woman</t>
+  </si>
+  <si>
+    <t>matching tracksuit</t>
+  </si>
+  <si>
+    <t>pink out</t>
+  </si>
+  <si>
+    <t>high black</t>
+  </si>
+  <si>
+    <t>waist set</t>
+  </si>
+  <si>
+    <t>green tracksuit</t>
+  </si>
+  <si>
+    <t>long crop top</t>
+  </si>
+  <si>
+    <t>waist woman</t>
+  </si>
+  <si>
+    <t>suit fashion</t>
+  </si>
+  <si>
+    <t>pink track suit</t>
+  </si>
+  <si>
+    <t>long pink shirt</t>
+  </si>
+  <si>
+    <t>tight long sleeve</t>
+  </si>
+  <si>
+    <t>tight top</t>
+  </si>
+  <si>
+    <t>pink outfit</t>
+  </si>
+  <si>
+    <t>long winter</t>
+  </si>
+  <si>
+    <t>pink workout</t>
+  </si>
+  <si>
+    <t>green outfit</t>
+  </si>
+  <si>
+    <t>woman top</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>green workout top</t>
+  </si>
+  <si>
+    <t>long workout top</t>
+  </si>
+  <si>
+    <t>woman workout</t>
+  </si>
+  <si>
+    <t>sport fitness</t>
+  </si>
+  <si>
+    <t>black winter</t>
+  </si>
+  <si>
+    <t>black apparel</t>
+  </si>
+  <si>
+    <t>blue workout top</t>
+  </si>
+  <si>
+    <t>green black</t>
+  </si>
+  <si>
+    <t>winter legging</t>
+  </si>
+  <si>
+    <t>waist top</t>
+  </si>
+  <si>
+    <t>tight long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight set</t>
+  </si>
+  <si>
+    <t>work workout</t>
+  </si>
+  <si>
+    <t>sport fashion</t>
+  </si>
+  <si>
+    <t>sport crop</t>
+  </si>
+  <si>
+    <t>black athletic top</t>
+  </si>
+  <si>
+    <t>long workout shirt</t>
+  </si>
+  <si>
+    <t>waist sleeve</t>
+  </si>
+  <si>
+    <t>winter suit</t>
+  </si>
+  <si>
+    <t>sport jogger</t>
+  </si>
+  <si>
+    <t>black set</t>
+  </si>
+  <si>
+    <t>blue apparel</t>
+  </si>
+  <si>
+    <t>fitness jacket</t>
+  </si>
+  <si>
+    <t>black tracksuit</t>
+  </si>
+  <si>
+    <t>winter set</t>
+  </si>
+  <si>
+    <t>suit woman</t>
+  </si>
+  <si>
+    <t>winter crop top</t>
+  </si>
+  <si>
+    <t>pink winter</t>
+  </si>
+  <si>
+    <t>green pant suit</t>
+  </si>
+  <si>
+    <t>woman pant suit set</t>
+  </si>
+  <si>
+    <t>blue crop shirt</t>
+  </si>
+  <si>
+    <t>pink sleeve</t>
+  </si>
+  <si>
+    <t>black matching set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,193 +648,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBF2A1-37C3-4B42-9277-2E63FA49A4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B07L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>workout suit woman set</t>
-  </si>
-  <si>
-    <t>jogger top woman</t>
-  </si>
-  <si>
-    <t>small jogger</t>
-  </si>
-  <si>
-    <t>waist top woman</t>
-  </si>
-  <si>
-    <t>top set woman</t>
-  </si>
-  <si>
-    <t>crop workout pant woman</t>
-  </si>
-  <si>
-    <t>high pant</t>
-  </si>
-  <si>
-    <t>fashionable pant woman</t>
-  </si>
-  <si>
-    <t>woman clothe pant</t>
-  </si>
-  <si>
-    <t>small pant</t>
-  </si>
-  <si>
-    <t>woman workout jogger high waist</t>
-  </si>
-  <si>
-    <t>woman black 2</t>
-  </si>
-  <si>
-    <t>black 2 piece set woman</t>
-  </si>
-  <si>
-    <t>high waist jogger pant woman</t>
-  </si>
-  <si>
-    <t>high woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe</t>
-  </si>
-  <si>
-    <t>workout crop top set woman</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>waist pant</t>
-  </si>
-  <si>
-    <t>woman green</t>
-  </si>
-  <si>
-    <t>2 piece pant suit woman</t>
-  </si>
-  <si>
-    <t>green workout pant</t>
-  </si>
-  <si>
-    <t>green jogger pant woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman set</t>
-  </si>
-  <si>
-    <t>fashionable top woman</t>
-  </si>
-  <si>
-    <t>piece woman</t>
-  </si>
-  <si>
-    <t>small clothe</t>
-  </si>
-  <si>
-    <t>clothe crop top</t>
-  </si>
-  <si>
-    <t>woman clothe 2 piece set</t>
-  </si>
-  <si>
-    <t>green black pant</t>
-  </si>
-  <si>
-    <t>woman small clothe</t>
-  </si>
-  <si>
-    <t>black crop pant</t>
-  </si>
-  <si>
-    <t>green black jogger</t>
-  </si>
-  <si>
-    <t>clothe top</t>
-  </si>
-  <si>
-    <t>clothe pant</t>
-  </si>
-  <si>
-    <t>workout crop woman</t>
-  </si>
-  <si>
-    <t>waist pant woman</t>
-  </si>
-  <si>
-    <t>black workout set woman</t>
-  </si>
-  <si>
-    <t>woman jogger pant set</t>
-  </si>
-  <si>
-    <t>small top woman</t>
-  </si>
-  <si>
-    <t>workout jogger pant woman</t>
-  </si>
-  <si>
-    <t>green pant suit woman</t>
-  </si>
-  <si>
-    <t>high waist workout pant</t>
-  </si>
-  <si>
-    <t>crop top pant</t>
-  </si>
-  <si>
-    <t>black workout crop top woman</t>
-  </si>
-  <si>
-    <t>workout suit woman 2 piece</t>
-  </si>
-  <si>
-    <t>black crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece jogger woman</t>
-  </si>
-  <si>
-    <t>clothe woman top</t>
-  </si>
-  <si>
-    <t>green workout top woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe woman</t>
-  </si>
-  <si>
-    <t>woman jogger suit 2 piece</t>
-  </si>
-  <si>
-    <t>woman pant top set</t>
-  </si>
-  <si>
-    <t>black jogger set woman</t>
-  </si>
-  <si>
-    <t>crop jogger woman</t>
-  </si>
-  <si>
-    <t>woman workout pant set</t>
-  </si>
-  <si>
-    <t>workout 2 piece woman</t>
-  </si>
-  <si>
-    <t>green suit woman</t>
-  </si>
-  <si>
-    <t>woman 2 piece suit</t>
-  </si>
-  <si>
-    <t>crop top jogger set woman</t>
-  </si>
-  <si>
-    <t>high pant woman</t>
-  </si>
-  <si>
-    <t>black jogger pant woman</t>
-  </si>
-  <si>
-    <t>clothe set woman</t>
-  </si>
-  <si>
-    <t>crop woman</t>
-  </si>
-  <si>
-    <t>high waist black pant woman</t>
-  </si>
-  <si>
-    <t>black jogger woman high waist</t>
-  </si>
-  <si>
-    <t>green clothe woman</t>
-  </si>
-  <si>
-    <t>crop top pant set woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman</t>
-  </si>
-  <si>
-    <t>black high top woman</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>workout clothe woman 2 piece</t>
-  </si>
-  <si>
-    <t>high waist workout pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman high waist set</t>
-  </si>
-  <si>
-    <t>workout top woman set</t>
-  </si>
-  <si>
-    <t>workout clothe woman top</t>
-  </si>
-  <si>
-    <t>black workout top woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman</t>
-  </si>
-  <si>
-    <t>suit set woman</t>
-  </si>
-  <si>
-    <t>crop top set woman</t>
-  </si>
-  <si>
-    <t>green clothe</t>
-  </si>
-  <si>
-    <t>workout suit woman</t>
-  </si>
-  <si>
-    <t>pant set woman</t>
-  </si>
-  <si>
-    <t>black pant suit woman</t>
-  </si>
-  <si>
-    <t>black workout pant woman</t>
-  </si>
-  <si>
-    <t>crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece pant set woman</t>
-  </si>
-  <si>
-    <t>green crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger woman</t>
-  </si>
-  <si>
-    <t>workout jogger woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman set</t>
-  </si>
-  <si>
-    <t>black clothe woman</t>
-  </si>
-  <si>
-    <t>green top woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman set</t>
-  </si>
-  <si>
-    <t>green pant woman</t>
-  </si>
-  <si>
-    <t>high waist pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman set</t>
-  </si>
-  <si>
-    <t>workout set woman</t>
-  </si>
-  <si>
-    <t>jogger pant woman</t>
-  </si>
-  <si>
-    <t>black crop top woman</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337DCEB-8DFC-451C-AE06-38981DB56FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>long sleeve crop shirt</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit</t>
-  </si>
-  <si>
-    <t>black 2 piece set</t>
-  </si>
-  <si>
-    <t>jogger outfit</t>
-  </si>
-  <si>
-    <t>fashion legging</t>
-  </si>
-  <si>
-    <t>track outfit</t>
-  </si>
-  <si>
-    <t>fashion crop top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>track shirt</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>long sleeve activewear</t>
-  </si>
-  <si>
-    <t>long sleeve athletic crop top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece</t>
-  </si>
-  <si>
-    <t>long sleeve legging set</t>
-  </si>
-  <si>
-    <t>work out long sleeve</t>
-  </si>
-  <si>
-    <t>two piece crop top</t>
-  </si>
-  <si>
-    <t>two piece suit</t>
-  </si>
-  <si>
-    <t>two piece jogger</t>
-  </si>
-  <si>
-    <t>two piece sweatsuit</t>
-  </si>
-  <si>
-    <t>2 piece outfit set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless long sleeve top</t>
-  </si>
-  <si>
-    <t>crop top fitness</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece crop top</t>
-  </si>
-  <si>
-    <t>2 piece suit</t>
-  </si>
-  <si>
-    <t>yoga sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt set</t>
-  </si>
-  <si>
-    <t>green long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>high waist set</t>
-  </si>
-  <si>
-    <t>pink apparel</t>
-  </si>
-  <si>
-    <t>size workout</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>2 piece track suit</t>
-  </si>
-  <si>
-    <t>pant set</t>
-  </si>
-  <si>
-    <t>track suit</t>
-  </si>
-  <si>
-    <t>fitness top</t>
-  </si>
-  <si>
-    <t>gym long sleeve</t>
-  </si>
-  <si>
-    <t>two outfit</t>
-  </si>
-  <si>
-    <t>top track</t>
-  </si>
-  <si>
-    <t>green pant</t>
-  </si>
-  <si>
-    <t>work out shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve</t>
-  </si>
-  <si>
-    <t>blue outfit</t>
-  </si>
-  <si>
-    <t>work apparel</t>
-  </si>
-  <si>
-    <t>pant woman</t>
-  </si>
-  <si>
-    <t>matching tracksuit</t>
-  </si>
-  <si>
-    <t>pink out</t>
-  </si>
-  <si>
-    <t>high black</t>
-  </si>
-  <si>
-    <t>waist set</t>
-  </si>
-  <si>
-    <t>green tracksuit</t>
-  </si>
-  <si>
-    <t>long crop top</t>
-  </si>
-  <si>
-    <t>waist woman</t>
-  </si>
-  <si>
-    <t>suit fashion</t>
-  </si>
-  <si>
-    <t>pink track suit</t>
-  </si>
-  <si>
-    <t>long pink shirt</t>
-  </si>
-  <si>
-    <t>tight long sleeve</t>
-  </si>
-  <si>
-    <t>tight top</t>
-  </si>
-  <si>
-    <t>pink outfit</t>
-  </si>
-  <si>
-    <t>long winter</t>
-  </si>
-  <si>
-    <t>pink workout</t>
-  </si>
-  <si>
-    <t>green outfit</t>
-  </si>
-  <si>
-    <t>woman top</t>
-  </si>
-  <si>
-    <t>work out set</t>
-  </si>
-  <si>
-    <t>green workout top</t>
-  </si>
-  <si>
-    <t>long workout top</t>
-  </si>
-  <si>
-    <t>woman workout</t>
-  </si>
-  <si>
-    <t>sport fitness</t>
-  </si>
-  <si>
-    <t>black winter</t>
-  </si>
-  <si>
-    <t>black apparel</t>
-  </si>
-  <si>
-    <t>blue workout top</t>
-  </si>
-  <si>
-    <t>green black</t>
-  </si>
-  <si>
-    <t>winter legging</t>
-  </si>
-  <si>
-    <t>waist top</t>
-  </si>
-  <si>
-    <t>tight long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight set</t>
-  </si>
-  <si>
-    <t>work workout</t>
-  </si>
-  <si>
-    <t>sport fashion</t>
-  </si>
-  <si>
-    <t>sport crop</t>
-  </si>
-  <si>
-    <t>black athletic top</t>
-  </si>
-  <si>
-    <t>long workout shirt</t>
-  </si>
-  <si>
-    <t>waist sleeve</t>
-  </si>
-  <si>
-    <t>winter suit</t>
-  </si>
-  <si>
-    <t>sport jogger</t>
-  </si>
-  <si>
-    <t>black set</t>
-  </si>
-  <si>
-    <t>blue apparel</t>
-  </si>
-  <si>
-    <t>fitness jacket</t>
-  </si>
-  <si>
-    <t>black tracksuit</t>
-  </si>
-  <si>
-    <t>winter set</t>
-  </si>
-  <si>
-    <t>suit woman</t>
-  </si>
-  <si>
-    <t>winter crop top</t>
-  </si>
-  <si>
-    <t>pink winter</t>
-  </si>
-  <si>
-    <t>green pant suit</t>
-  </si>
-  <si>
-    <t>woman pant suit set</t>
-  </si>
-  <si>
-    <t>blue crop shirt</t>
-  </si>
-  <si>
-    <t>pink sleeve</t>
-  </si>
-  <si>
-    <t>black matching set</t>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>black sleeve</t>
-  </si>
-  <si>
-    <t>high waist legging</t>
-  </si>
-  <si>
-    <t>yoga suit</t>
-  </si>
-  <si>
-    <t>top set</t>
-  </si>
-  <si>
-    <t>out shirt</t>
-  </si>
-  <si>
-    <t>tight shirt</t>
-  </si>
-  <si>
-    <t>athletic yoga</t>
-  </si>
-  <si>
-    <t>pink crop top</t>
-  </si>
-  <si>
-    <t>high waist pant</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>jogger pant</t>
-  </si>
-  <si>
-    <t>2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece jogger set</t>
-  </si>
-  <si>
-    <t>2 piece outfit</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit</t>
-  </si>
-  <si>
-    <t>blue shirt</t>
-  </si>
-  <si>
-    <t>seamless long sleeve</t>
-  </si>
-  <si>
-    <t>long top</t>
-  </si>
-  <si>
-    <t>jogger set</t>
-  </si>
-  <si>
-    <t>black with</t>
-  </si>
-  <si>
-    <t>athletic top</t>
-  </si>
-  <si>
-    <t>exercise apparel</t>
-  </si>
-  <si>
-    <t>green suit</t>
-  </si>
-  <si>
-    <t>matching outfit</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>athletic outfit</t>
-  </si>
-  <si>
-    <t>pant outfit</t>
-  </si>
-  <si>
-    <t>with 2</t>
-  </si>
-  <si>
-    <t>green top</t>
-  </si>
-  <si>
-    <t>athletic green</t>
-  </si>
-  <si>
-    <t>black blue shirt</t>
-  </si>
-  <si>
-    <t>black long sleeve top</t>
-  </si>
-  <si>
-    <t>black sleeve crop top</t>
-  </si>
-  <si>
-    <t>black crop top set</t>
-  </si>
-  <si>
-    <t>exercise crop top</t>
-  </si>
-  <si>
-    <t>pink gym</t>
-  </si>
-  <si>
-    <t>pink workout shirt</t>
-  </si>
-  <si>
-    <t>small waist</t>
-  </si>
-  <si>
-    <t>blue set</t>
-  </si>
-  <si>
-    <t>blue tracksuit</t>
-  </si>
-  <si>
-    <t>black blue</t>
-  </si>
-  <si>
-    <t>pink workout top</t>
-  </si>
-  <si>
-    <t>pink yoga top</t>
-  </si>
-  <si>
-    <t>long suit</t>
-  </si>
-  <si>
-    <t>workout crop</t>
-  </si>
-  <si>
-    <t>workout long sleeve</t>
-  </si>
-  <si>
-    <t>sport gym</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>gym crop</t>
-  </si>
-  <si>
-    <t>sport crop top</t>
-  </si>
-  <si>
-    <t>sport outfit</t>
-  </si>
-  <si>
-    <t>gym apparel</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>winter apparel</t>
-  </si>
-  <si>
-    <t>sport suit</t>
-  </si>
-  <si>
-    <t>shirt set</t>
-  </si>
-  <si>
-    <t>shirt outfit</t>
-  </si>
-  <si>
-    <t>jacket outfit</t>
-  </si>
-  <si>
-    <t>fitness set</t>
-  </si>
-  <si>
-    <t>fitness suit</t>
-  </si>
-  <si>
-    <t>high crop top</t>
-  </si>
-  <si>
-    <t>woman apparel</t>
-  </si>
-  <si>
-    <t>black 2</t>
-  </si>
-  <si>
-    <t>yoga crop top</t>
-  </si>
-  <si>
-    <t>yoga crop</t>
-  </si>
-  <si>
-    <t>yoga black</t>
-  </si>
-  <si>
-    <t>athletic set</t>
-  </si>
-  <si>
-    <t>athletic crop</t>
-  </si>
-  <si>
-    <t>athletic suit</t>
-  </si>
-  <si>
-    <t>athletic fashion</t>
-  </si>
-  <si>
-    <t>tight sleeve</t>
-  </si>
-  <si>
-    <t>tight jacket</t>
-  </si>
-  <si>
-    <t>bodybuilding workout</t>
-  </si>
-  <si>
-    <t>clothe set</t>
-  </si>
-  <si>
-    <t>suit top</t>
-  </si>
-  <si>
-    <t>jogger suit</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>ribbed crop</t>
-  </si>
-  <si>
-    <t>2 shirt</t>
-  </si>
-  <si>
-    <t>winter clothing</t>
-  </si>
-  <si>
-    <t>crop workout shirt</t>
-  </si>
-  <si>
-    <t>crop set</t>
-  </si>
-  <si>
-    <t>crop tracksuit</t>
-  </si>
-  <si>
-    <t>jogging set</t>
-  </si>
-  <si>
-    <t>green set</t>
-  </si>
-  <si>
-    <t>long sleeve work shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>crop top tracksuit</t>
-  </si>
-  <si>
-    <t>long sleeve yoga crop top</t>
-  </si>
-  <si>
-    <t>workout suit</t>
-  </si>
-  <si>
-    <t>blue 2</t>
-  </si>
-  <si>
-    <t>pink tracksuit</t>
-  </si>
-  <si>
-    <t>pink yoga</t>
-  </si>
-  <si>
-    <t>two piece outfit set</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>green crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve</t>
-  </si>
-  <si>
-    <t>green piece</t>
-  </si>
-  <si>
-    <t>jogger pant set</t>
-  </si>
-  <si>
-    <t>high waist pant set</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
